--- a/admin/laporan/rekap_hafalan_santri.xlsx
+++ b/admin/laporan/rekap_hafalan_santri.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Laporan Rekap Data Hafalan Santri</t>
   </si>
@@ -44,22 +44,25 @@
     <t>1A</t>
   </si>
   <si>
-    <t>2 Juz</t>
-  </si>
-  <si>
-    <t>1 Surat</t>
-  </si>
-  <si>
-    <t>Keyza</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Fendy</t>
-  </si>
-  <si>
-    <t>2B</t>
+    <t>148 Juz</t>
+  </si>
+  <si>
+    <t>0 Surat</t>
+  </si>
+  <si>
+    <t>Tegar Raihan Akmali</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>10 Juz</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>3 Juz</t>
   </si>
 </sst>
 </file>
@@ -494,16 +497,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>213510285</v>
+        <v>11111</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
@@ -514,16 +517,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>6789</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
